--- a/25-OCT-2021.xlsx
+++ b/25-OCT-2021.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashbi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\October Batch\SimplilearnOctober\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B10D7C-71BF-4872-8C48-FB0000BC5881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D27DAD-F6C7-4484-8585-19F1F8D7C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7DB62762-AE7F-40CC-B057-590A7F7CBD1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7DB62762-AE7F-40CC-B057-590A7F7CBD1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>Employee</t>
   </si>
@@ -132,6 +133,30 @@
   </si>
   <si>
     <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Empoyee</t>
+  </si>
+  <si>
+    <t>EmployeeDetails</t>
+  </si>
+  <si>
+    <t>Empid</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -222,17 +247,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F39FB91-3D47-4735-B1A0-3BA50B7BCAE3}">
   <dimension ref="E3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -697,10 +722,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -708,8 +733,8 @@
       </c>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
@@ -772,10 +797,10 @@
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -861,10 +886,10 @@
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -898,10 +923,10 @@
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -935,10 +960,10 @@
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E37" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1021,4 +1046,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F759A0BD-E590-49EE-94A3-100531780542}">
+  <dimension ref="G5:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>900</v>
+      </c>
+      <c r="K6">
+        <v>900</v>
+      </c>
+      <c r="M6">
+        <v>700</v>
+      </c>
+      <c r="O6" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>700</v>
+      </c>
+      <c r="K7">
+        <v>700</v>
+      </c>
+      <c r="M7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>1001</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>1002</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>